--- a/data/data_epc_all.xlsx
+++ b/data/data_epc_all.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NW2"/>
+  <dimension ref="A1:NW3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4002,6 +4002,1651 @@
         </is>
       </c>
       <c r="NW2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:28</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>7,55</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>424</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14,79</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>69</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5,96</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2,91</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>3,06</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>27</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>5,85</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>57</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>3,49</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>61</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>17,53</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>11</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>6,41</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>38</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>9,16</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>17</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>5,85</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>13</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>14,73</t>
+        </is>
+      </c>
+      <c r="Y3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>7,11</t>
+        </is>
+      </c>
+      <c r="AA3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>4,70</t>
+        </is>
+      </c>
+      <c r="AC3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>5,50</t>
+        </is>
+      </c>
+      <c r="AE3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="AG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>6,24</t>
+        </is>
+      </c>
+      <c r="AI3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>7,80</t>
+        </is>
+      </c>
+      <c r="AK3" t="n">
+        <v>33</v>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>2,52</t>
+        </is>
+      </c>
+      <c r="AM3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>1,31</t>
+        </is>
+      </c>
+      <c r="AQ3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>4,80</t>
+        </is>
+      </c>
+      <c r="AS3" t="n">
+        <v>31</v>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>2,88</t>
+        </is>
+      </c>
+      <c r="AU3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>22,43</t>
+        </is>
+      </c>
+      <c r="AW3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="AY3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>6,69</t>
+        </is>
+      </c>
+      <c r="BA3" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>4,85</t>
+        </is>
+      </c>
+      <c r="BC3" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>12,54</t>
+        </is>
+      </c>
+      <c r="BG3" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>2,60</t>
+        </is>
+      </c>
+      <c r="BI3" t="n">
+        <v>22</v>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>9,11</t>
+        </is>
+      </c>
+      <c r="BK3" t="n">
+        <v>25</v>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>3,75</t>
+        </is>
+      </c>
+      <c r="BO3" t="n">
+        <v>18</v>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>45,26</t>
+        </is>
+      </c>
+      <c r="BQ3" t="n">
+        <v>25</v>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>6,52</t>
+        </is>
+      </c>
+      <c r="BS3" t="n">
+        <v>14</v>
+      </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>5,64</t>
+        </is>
+      </c>
+      <c r="BW3" t="n">
+        <v>17</v>
+      </c>
+      <c r="BX3" t="inlineStr">
+        <is>
+          <t>5,66</t>
+        </is>
+      </c>
+      <c r="BY3" t="n">
+        <v>34</v>
+      </c>
+      <c r="BZ3" t="inlineStr">
+        <is>
+          <t>5,73</t>
+        </is>
+      </c>
+      <c r="CA3" t="n">
+        <v>24</v>
+      </c>
+      <c r="CB3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CC3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CD3" t="inlineStr">
+        <is>
+          <t>3,93</t>
+        </is>
+      </c>
+      <c r="CE3" t="n">
+        <v>30</v>
+      </c>
+      <c r="CF3" t="inlineStr">
+        <is>
+          <t>4,48</t>
+        </is>
+      </c>
+      <c r="CG3" t="n">
+        <v>9</v>
+      </c>
+      <c r="CH3" t="inlineStr">
+        <is>
+          <t>8,72</t>
+        </is>
+      </c>
+      <c r="CI3" t="n">
+        <v>4</v>
+      </c>
+      <c r="CJ3" t="inlineStr">
+        <is>
+          <t>29,12</t>
+        </is>
+      </c>
+      <c r="CK3" t="n">
+        <v>15</v>
+      </c>
+      <c r="CL3" t="inlineStr">
+        <is>
+          <t>5,39</t>
+        </is>
+      </c>
+      <c r="CM3" t="n">
+        <v>6</v>
+      </c>
+      <c r="CN3" t="inlineStr">
+        <is>
+          <t>4,30</t>
+        </is>
+      </c>
+      <c r="CO3" t="n">
+        <v>25</v>
+      </c>
+      <c r="CP3" t="inlineStr">
+        <is>
+          <t>6,63</t>
+        </is>
+      </c>
+      <c r="CQ3" t="n">
+        <v>10</v>
+      </c>
+      <c r="CR3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CS3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CT3" t="inlineStr">
+        <is>
+          <t>7,59</t>
+        </is>
+      </c>
+      <c r="CU3" t="n">
+        <v>15</v>
+      </c>
+      <c r="CV3" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="CW3" t="n">
+        <v>41</v>
+      </c>
+      <c r="CX3" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="CY3" t="n">
+        <v>5</v>
+      </c>
+      <c r="CZ3" t="inlineStr">
+        <is>
+          <t>0,10</t>
+        </is>
+      </c>
+      <c r="DA3" t="n">
+        <v>4</v>
+      </c>
+      <c r="DB3" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="DC3" t="n">
+        <v>15</v>
+      </c>
+      <c r="DD3" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="DE3" t="n">
+        <v>31</v>
+      </c>
+      <c r="DF3" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="DG3" t="n">
+        <v>24</v>
+      </c>
+      <c r="DH3" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="DI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ3" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="DK3" t="n">
+        <v>21</v>
+      </c>
+      <c r="DL3" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="DM3" t="n">
+        <v>9</v>
+      </c>
+      <c r="DN3" t="inlineStr">
+        <is>
+          <t>0,20</t>
+        </is>
+      </c>
+      <c r="DO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DP3" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="DQ3" t="n">
+        <v>17</v>
+      </c>
+      <c r="DR3" t="inlineStr">
+        <is>
+          <t>0,70</t>
+        </is>
+      </c>
+      <c r="DS3" t="n">
+        <v>7</v>
+      </c>
+      <c r="DT3" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="DU3" t="n">
+        <v>18</v>
+      </c>
+      <c r="DV3" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="DW3" t="n">
+        <v>10</v>
+      </c>
+      <c r="DX3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DY3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DZ3" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="EA3" t="n">
+        <v>9</v>
+      </c>
+      <c r="EB3" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="EC3" t="n">
+        <v>79</v>
+      </c>
+      <c r="ED3" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="EE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EG3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EH3" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="EI3" t="n">
+        <v>7</v>
+      </c>
+      <c r="EJ3" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="EK3" t="n">
+        <v>6</v>
+      </c>
+      <c r="EL3" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="EM3" t="n">
+        <v>9</v>
+      </c>
+      <c r="EN3" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="EO3" t="n">
+        <v>4</v>
+      </c>
+      <c r="EP3" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="EQ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="ER3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET3" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="EU3" t="n">
+        <v>6</v>
+      </c>
+      <c r="EV3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EW3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX3" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="EY3" t="n">
+        <v>2</v>
+      </c>
+      <c r="EZ3" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="FA3" t="n">
+        <v>5</v>
+      </c>
+      <c r="FB3" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="FC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FE3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF3" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="FG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FH3" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+      <c r="FI3" t="n">
+        <v>30</v>
+      </c>
+      <c r="FJ3" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="FK3" t="n">
+        <v>4</v>
+      </c>
+      <c r="FL3" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="FM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN3" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="FO3" t="n">
+        <v>9</v>
+      </c>
+      <c r="FP3" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="FQ3" t="n">
+        <v>9</v>
+      </c>
+      <c r="FR3" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="FS3" t="n">
+        <v>15</v>
+      </c>
+      <c r="FT3" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="FU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV3" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="FW3" t="n">
+        <v>18</v>
+      </c>
+      <c r="FX3" t="inlineStr">
+        <is>
+          <t>0,20</t>
+        </is>
+      </c>
+      <c r="FY3" t="n">
+        <v>4</v>
+      </c>
+      <c r="FZ3" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="GA3" t="n">
+        <v>5</v>
+      </c>
+      <c r="GB3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GC3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GD3" t="inlineStr">
+        <is>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="GE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF3" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="GG3" t="n">
+        <v>4</v>
+      </c>
+      <c r="GH3" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="GI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GJ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GK3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GL3" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="GM3" t="n">
+        <v>6</v>
+      </c>
+      <c r="GN3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GO3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GP3" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="GQ3" t="n">
+        <v>2</v>
+      </c>
+      <c r="GR3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GS3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GT3" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="GU3" t="n">
+        <v>8</v>
+      </c>
+      <c r="GV3" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="GW3" t="n">
+        <v>4</v>
+      </c>
+      <c r="GX3" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="GY3" t="n">
+        <v>13</v>
+      </c>
+      <c r="GZ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HA3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HB3" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="HC3" t="n">
+        <v>13</v>
+      </c>
+      <c r="HD3" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="HE3" t="n">
+        <v>2</v>
+      </c>
+      <c r="HF3" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="HG3" t="n">
+        <v>6</v>
+      </c>
+      <c r="HH3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HI3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HJ3" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="HK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HL3" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="HM3" t="n">
+        <v>2</v>
+      </c>
+      <c r="HN3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HO3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HP3" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="HQ3" t="n">
+        <v>2</v>
+      </c>
+      <c r="HR3" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="HS3" t="n">
+        <v>6</v>
+      </c>
+      <c r="HT3" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="HU3" t="n">
+        <v>7</v>
+      </c>
+      <c r="HV3" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="HW3" t="n">
+        <v>2</v>
+      </c>
+      <c r="HX3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HY3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HZ3" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="IA3" t="n">
+        <v>10</v>
+      </c>
+      <c r="IB3" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="IC3" t="n">
+        <v>18</v>
+      </c>
+      <c r="ID3" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="IE3" t="n">
+        <v>17</v>
+      </c>
+      <c r="IF3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IG3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IH3" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="II3" t="n">
+        <v>19</v>
+      </c>
+      <c r="IJ3" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="IK3" t="n">
+        <v>2</v>
+      </c>
+      <c r="IL3" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="IM3" t="n">
+        <v>10</v>
+      </c>
+      <c r="IN3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IO3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IP3" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="IQ3" t="n">
+        <v>9</v>
+      </c>
+      <c r="IR3" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="IS3" t="n">
+        <v>9</v>
+      </c>
+      <c r="IT3" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="IU3" t="n">
+        <v>7</v>
+      </c>
+      <c r="IV3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IW3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IX3" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="IY3" t="n">
+        <v>5</v>
+      </c>
+      <c r="IZ3" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="JA3" t="n">
+        <v>7</v>
+      </c>
+      <c r="JB3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JC3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JD3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JE3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JF3" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="JG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="JH3" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="JI3" t="n">
+        <v>10</v>
+      </c>
+      <c r="JJ3" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="JK3" t="n">
+        <v>11</v>
+      </c>
+      <c r="JL3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JM3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JN3" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="JO3" t="n">
+        <v>6</v>
+      </c>
+      <c r="JP3" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="JQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR3" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="JS3" t="n">
+        <v>4</v>
+      </c>
+      <c r="JT3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JU3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JV3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JW3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JX3" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="JY3" t="n">
+        <v>2</v>
+      </c>
+      <c r="JZ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KA3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KB3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KC3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KD3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KE3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KF3" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="KG3" t="n">
+        <v>7</v>
+      </c>
+      <c r="KH3" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="KI3" t="n">
+        <v>2</v>
+      </c>
+      <c r="KJ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KK3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KL3" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="KM3" t="n">
+        <v>2</v>
+      </c>
+      <c r="KN3" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="KO3" t="n">
+        <v>14</v>
+      </c>
+      <c r="KP3" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="KQ3" t="n">
+        <v>8</v>
+      </c>
+      <c r="KR3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KS3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KT3" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="KU3" t="n">
+        <v>6</v>
+      </c>
+      <c r="KV3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KW3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KX3" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="KY3" t="n">
+        <v>5</v>
+      </c>
+      <c r="KZ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LA3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LB3" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="LC3" t="n">
+        <v>2</v>
+      </c>
+      <c r="LD3" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="LE3" t="n">
+        <v>2</v>
+      </c>
+      <c r="LF3" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="LG3" t="n">
+        <v>2</v>
+      </c>
+      <c r="LH3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LI3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LJ3" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="LK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="LL3" t="inlineStr">
+        <is>
+          <t>5,62</t>
+        </is>
+      </c>
+      <c r="LM3" t="n">
+        <v>6</v>
+      </c>
+      <c r="LN3" t="inlineStr">
+        <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="LO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="LP3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LQ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LR3" t="inlineStr">
+        <is>
+          <t>2,08</t>
+        </is>
+      </c>
+      <c r="LS3" t="n">
+        <v>7</v>
+      </c>
+      <c r="LT3" t="inlineStr">
+        <is>
+          <t>1,20</t>
+        </is>
+      </c>
+      <c r="LU3" t="n">
+        <v>6</v>
+      </c>
+      <c r="LV3" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="LW3" t="n">
+        <v>6</v>
+      </c>
+      <c r="LX3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LY3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LZ3" t="inlineStr">
+        <is>
+          <t>1,64</t>
+        </is>
+      </c>
+      <c r="MA3" t="n">
+        <v>9</v>
+      </c>
+      <c r="MB3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MC3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MD3" t="inlineStr">
+        <is>
+          <t>1,10</t>
+        </is>
+      </c>
+      <c r="ME3" t="n">
+        <v>1</v>
+      </c>
+      <c r="MF3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MG3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MH3" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="MI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="MJ3" t="inlineStr">
+        <is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="MK3" t="n">
+        <v>2</v>
+      </c>
+      <c r="ML3" t="inlineStr">
+        <is>
+          <t>2,65</t>
+        </is>
+      </c>
+      <c r="MM3" t="n">
+        <v>5</v>
+      </c>
+      <c r="MN3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MO3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MP3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MQ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MR3" t="inlineStr">
+        <is>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="MS3" t="n">
+        <v>27</v>
+      </c>
+      <c r="MT3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MU3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MV3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MW3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MX3" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="MY3" t="n">
+        <v>14</v>
+      </c>
+      <c r="MZ3" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="NA3" t="n">
+        <v>7</v>
+      </c>
+      <c r="NB3" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="NC3" t="n">
+        <v>12</v>
+      </c>
+      <c r="ND3" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="NE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="NF3" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="NG3" t="n">
+        <v>8</v>
+      </c>
+      <c r="NH3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NI3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NJ3" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="NK3" t="n">
+        <v>7</v>
+      </c>
+      <c r="NL3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NM3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NN3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NO3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NP3" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="NQ3" t="n">
+        <v>5</v>
+      </c>
+      <c r="NR3" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="NS3" t="n">
+        <v>4</v>
+      </c>
+      <c r="NT3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NU3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NV3" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="NW3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4232,13 +5877,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1937ABC2-C147-4F11-8073-9E2C9711494E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DECB2683-DFEA-4BD5-971D-A830D960A116}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96F287E5-FE17-406B-B6A5-EC4011623D91}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1EDD831-99F8-4D4C-93B6-4EEB6EA42FD4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C81EA96B-6F4C-4F32-84EE-738D19A05BC7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B4B8C7F-CEB4-40D4-AB18-32A6EFD59CA2}"/>
 </file>
--- a/data/data_epc_all.xlsx
+++ b/data/data_epc_all.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NW5"/>
+  <dimension ref="A1:NW6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9368,6 +9368,1655 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-09-13 13:24</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>7,29</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>426</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14,02</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>69</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6,13</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>16</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3,13</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2,91</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>25</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>3,89</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>57</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>4,72</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>64</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>16,68</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>12</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>5,75</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>37</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>7,11</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v>17</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>10,02</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>13</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>13,81</t>
+        </is>
+      </c>
+      <c r="Y6" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>7,12</t>
+        </is>
+      </c>
+      <c r="AA6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>4,13</t>
+        </is>
+      </c>
+      <c r="AC6" t="n">
+        <v>48</v>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>6,51</t>
+        </is>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="AG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>6,66</t>
+        </is>
+      </c>
+      <c r="AI6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>7,61</t>
+        </is>
+      </c>
+      <c r="AK6" t="n">
+        <v>33</v>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>2,89</t>
+        </is>
+      </c>
+      <c r="AM6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>1,33</t>
+        </is>
+      </c>
+      <c r="AQ6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>4,87</t>
+        </is>
+      </c>
+      <c r="AS6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>2,99</t>
+        </is>
+      </c>
+      <c r="AU6" t="n">
+        <v>53</v>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>17,24</t>
+        </is>
+      </c>
+      <c r="AW6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="AY6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>5,89</t>
+        </is>
+      </c>
+      <c r="BA6" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>4,47</t>
+        </is>
+      </c>
+      <c r="BC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>12,75</t>
+        </is>
+      </c>
+      <c r="BG6" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>3,12</t>
+        </is>
+      </c>
+      <c r="BI6" t="n">
+        <v>22</v>
+      </c>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>10,39</t>
+        </is>
+      </c>
+      <c r="BK6" t="n">
+        <v>27</v>
+      </c>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>3,51</t>
+        </is>
+      </c>
+      <c r="BO6" t="n">
+        <v>19</v>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>43,16</t>
+        </is>
+      </c>
+      <c r="BQ6" t="n">
+        <v>25</v>
+      </c>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>4,94</t>
+        </is>
+      </c>
+      <c r="BS6" t="n">
+        <v>14</v>
+      </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BV6" t="inlineStr">
+        <is>
+          <t>5,12</t>
+        </is>
+      </c>
+      <c r="BW6" t="n">
+        <v>18</v>
+      </c>
+      <c r="BX6" t="inlineStr">
+        <is>
+          <t>6,20</t>
+        </is>
+      </c>
+      <c r="BY6" t="n">
+        <v>35</v>
+      </c>
+      <c r="BZ6" t="inlineStr">
+        <is>
+          <t>5,52</t>
+        </is>
+      </c>
+      <c r="CA6" t="n">
+        <v>25</v>
+      </c>
+      <c r="CB6" t="inlineStr">
+        <is>
+          <t>7,74</t>
+        </is>
+      </c>
+      <c r="CC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD6" t="inlineStr">
+        <is>
+          <t>3,58</t>
+        </is>
+      </c>
+      <c r="CE6" t="n">
+        <v>30</v>
+      </c>
+      <c r="CF6" t="inlineStr">
+        <is>
+          <t>4,31</t>
+        </is>
+      </c>
+      <c r="CG6" t="n">
+        <v>9</v>
+      </c>
+      <c r="CH6" t="inlineStr">
+        <is>
+          <t>8,40</t>
+        </is>
+      </c>
+      <c r="CI6" t="n">
+        <v>4</v>
+      </c>
+      <c r="CJ6" t="inlineStr">
+        <is>
+          <t>27,85</t>
+        </is>
+      </c>
+      <c r="CK6" t="n">
+        <v>15</v>
+      </c>
+      <c r="CL6" t="inlineStr">
+        <is>
+          <t>7,99</t>
+        </is>
+      </c>
+      <c r="CM6" t="n">
+        <v>6</v>
+      </c>
+      <c r="CN6" t="inlineStr">
+        <is>
+          <t>3,85</t>
+        </is>
+      </c>
+      <c r="CO6" t="n">
+        <v>23</v>
+      </c>
+      <c r="CP6" t="inlineStr">
+        <is>
+          <t>6,58</t>
+        </is>
+      </c>
+      <c r="CQ6" t="n">
+        <v>10</v>
+      </c>
+      <c r="CR6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CS6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CT6" t="inlineStr">
+        <is>
+          <t>5,87</t>
+        </is>
+      </c>
+      <c r="CU6" t="n">
+        <v>15</v>
+      </c>
+      <c r="CV6" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="CW6" t="n">
+        <v>40</v>
+      </c>
+      <c r="CX6" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="CY6" t="n">
+        <v>5</v>
+      </c>
+      <c r="CZ6" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="DA6" t="n">
+        <v>4</v>
+      </c>
+      <c r="DB6" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="DC6" t="n">
+        <v>15</v>
+      </c>
+      <c r="DD6" t="inlineStr">
+        <is>
+          <t>0,40</t>
+        </is>
+      </c>
+      <c r="DE6" t="n">
+        <v>31</v>
+      </c>
+      <c r="DF6" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="DG6" t="n">
+        <v>23</v>
+      </c>
+      <c r="DH6" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="DI6" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ6" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="DK6" t="n">
+        <v>21</v>
+      </c>
+      <c r="DL6" t="inlineStr">
+        <is>
+          <t>0,40</t>
+        </is>
+      </c>
+      <c r="DM6" t="n">
+        <v>9</v>
+      </c>
+      <c r="DN6" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="DO6" t="n">
+        <v>3</v>
+      </c>
+      <c r="DP6" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="DQ6" t="n">
+        <v>17</v>
+      </c>
+      <c r="DR6" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="DS6" t="n">
+        <v>7</v>
+      </c>
+      <c r="DT6" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="DU6" t="n">
+        <v>18</v>
+      </c>
+      <c r="DV6" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="DW6" t="n">
+        <v>10</v>
+      </c>
+      <c r="DX6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DY6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DZ6" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="EA6" t="n">
+        <v>9</v>
+      </c>
+      <c r="EB6" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="EC6" t="n">
+        <v>79</v>
+      </c>
+      <c r="ED6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EE6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EF6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EG6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EH6" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="EI6" t="n">
+        <v>7</v>
+      </c>
+      <c r="EJ6" t="inlineStr">
+        <is>
+          <t>0,10</t>
+        </is>
+      </c>
+      <c r="EK6" t="n">
+        <v>6</v>
+      </c>
+      <c r="EL6" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="EM6" t="n">
+        <v>8</v>
+      </c>
+      <c r="EN6" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="EO6" t="n">
+        <v>4</v>
+      </c>
+      <c r="EP6" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="EQ6" t="n">
+        <v>15</v>
+      </c>
+      <c r="ER6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET6" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="EU6" t="n">
+        <v>6</v>
+      </c>
+      <c r="EV6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EW6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX6" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="EY6" t="n">
+        <v>2</v>
+      </c>
+      <c r="EZ6" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="FA6" t="n">
+        <v>4</v>
+      </c>
+      <c r="FB6" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="FC6" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FE6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF6" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="FG6" t="n">
+        <v>4</v>
+      </c>
+      <c r="FH6" t="inlineStr">
+        <is>
+          <t>1,45</t>
+        </is>
+      </c>
+      <c r="FI6" t="n">
+        <v>31</v>
+      </c>
+      <c r="FJ6" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="FK6" t="n">
+        <v>5</v>
+      </c>
+      <c r="FL6" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="FM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN6" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="FO6" t="n">
+        <v>10</v>
+      </c>
+      <c r="FP6" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="FQ6" t="n">
+        <v>9</v>
+      </c>
+      <c r="FR6" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="FS6" t="n">
+        <v>16</v>
+      </c>
+      <c r="FT6" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="FU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV6" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="FW6" t="n">
+        <v>18</v>
+      </c>
+      <c r="FX6" t="inlineStr">
+        <is>
+          <t>0,20</t>
+        </is>
+      </c>
+      <c r="FY6" t="n">
+        <v>4</v>
+      </c>
+      <c r="FZ6" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="GA6" t="n">
+        <v>5</v>
+      </c>
+      <c r="GB6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GC6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GD6" t="inlineStr">
+        <is>
+          <t>1,26</t>
+        </is>
+      </c>
+      <c r="GE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF6" t="inlineStr">
+        <is>
+          <t>0,20</t>
+        </is>
+      </c>
+      <c r="GG6" t="n">
+        <v>4</v>
+      </c>
+      <c r="GH6" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="GI6" t="n">
+        <v>3</v>
+      </c>
+      <c r="GJ6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GK6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GL6" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="GM6" t="n">
+        <v>6</v>
+      </c>
+      <c r="GN6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GO6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GP6" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="GQ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GS6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GT6" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="GU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="GV6" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="GW6" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX6" t="inlineStr">
+        <is>
+          <t>0,50</t>
+        </is>
+      </c>
+      <c r="GY6" t="n">
+        <v>12</v>
+      </c>
+      <c r="GZ6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HA6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HB6" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="HC6" t="n">
+        <v>13</v>
+      </c>
+      <c r="HD6" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="HE6" t="n">
+        <v>3</v>
+      </c>
+      <c r="HF6" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="HG6" t="n">
+        <v>6</v>
+      </c>
+      <c r="HH6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HI6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HJ6" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="HK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="HL6" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="HM6" t="n">
+        <v>4</v>
+      </c>
+      <c r="HN6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HO6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HP6" t="inlineStr">
+        <is>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="HQ6" t="n">
+        <v>2</v>
+      </c>
+      <c r="HR6" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="HS6" t="n">
+        <v>8</v>
+      </c>
+      <c r="HT6" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="HU6" t="n">
+        <v>6</v>
+      </c>
+      <c r="HV6" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="HW6" t="n">
+        <v>2</v>
+      </c>
+      <c r="HX6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HY6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HZ6" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="IA6" t="n">
+        <v>10</v>
+      </c>
+      <c r="IB6" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="IC6" t="n">
+        <v>17</v>
+      </c>
+      <c r="ID6" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="IE6" t="n">
+        <v>18</v>
+      </c>
+      <c r="IF6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IG6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IH6" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="II6" t="n">
+        <v>15</v>
+      </c>
+      <c r="IJ6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IK6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IL6" t="inlineStr">
+        <is>
+          <t>0,50</t>
+        </is>
+      </c>
+      <c r="IM6" t="n">
+        <v>9</v>
+      </c>
+      <c r="IN6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IO6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IP6" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="IQ6" t="n">
+        <v>9</v>
+      </c>
+      <c r="IR6" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="IS6" t="n">
+        <v>10</v>
+      </c>
+      <c r="IT6" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="IU6" t="n">
+        <v>6</v>
+      </c>
+      <c r="IV6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IW6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IX6" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="IY6" t="n">
+        <v>6</v>
+      </c>
+      <c r="IZ6" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="JA6" t="n">
+        <v>7</v>
+      </c>
+      <c r="JB6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JC6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JD6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JE6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JF6" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="JG6" t="n">
+        <v>3</v>
+      </c>
+      <c r="JH6" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="JI6" t="n">
+        <v>9</v>
+      </c>
+      <c r="JJ6" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="JK6" t="n">
+        <v>11</v>
+      </c>
+      <c r="JL6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JM6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JN6" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="JO6" t="n">
+        <v>7</v>
+      </c>
+      <c r="JP6" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="JQ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR6" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="JS6" t="n">
+        <v>4</v>
+      </c>
+      <c r="JT6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JU6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JV6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JW6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JX6" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="JY6" t="n">
+        <v>2</v>
+      </c>
+      <c r="JZ6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KA6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KB6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KC6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KD6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KE6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KF6" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="KG6" t="n">
+        <v>7</v>
+      </c>
+      <c r="KH6" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="KI6" t="n">
+        <v>2</v>
+      </c>
+      <c r="KJ6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KK6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KL6" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="KM6" t="n">
+        <v>2</v>
+      </c>
+      <c r="KN6" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="KO6" t="n">
+        <v>14</v>
+      </c>
+      <c r="KP6" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="KQ6" t="n">
+        <v>8</v>
+      </c>
+      <c r="KR6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KS6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KT6" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="KU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="KV6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KW6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KX6" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="KY6" t="n">
+        <v>5</v>
+      </c>
+      <c r="KZ6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LA6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LB6" t="inlineStr">
+        <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="LC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="LD6" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="LE6" t="n">
+        <v>2</v>
+      </c>
+      <c r="LF6" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="LG6" t="n">
+        <v>2</v>
+      </c>
+      <c r="LH6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LI6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LJ6" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="LK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="LL6" t="inlineStr">
+        <is>
+          <t>4,91</t>
+        </is>
+      </c>
+      <c r="LM6" t="n">
+        <v>6</v>
+      </c>
+      <c r="LN6" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="LO6" t="n">
+        <v>1</v>
+      </c>
+      <c r="LP6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LQ6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LR6" t="inlineStr">
+        <is>
+          <t>2,32</t>
+        </is>
+      </c>
+      <c r="LS6" t="n">
+        <v>8</v>
+      </c>
+      <c r="LT6" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="LU6" t="n">
+        <v>7</v>
+      </c>
+      <c r="LV6" t="inlineStr">
+        <is>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="LW6" t="n">
+        <v>6</v>
+      </c>
+      <c r="LX6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LY6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LZ6" t="inlineStr">
+        <is>
+          <t>1,45</t>
+        </is>
+      </c>
+      <c r="MA6" t="n">
+        <v>10</v>
+      </c>
+      <c r="MB6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MC6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MD6" t="inlineStr">
+        <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="ME6" t="n">
+        <v>1</v>
+      </c>
+      <c r="MF6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MG6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MH6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MI6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MJ6" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="MK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="ML6" t="inlineStr">
+        <is>
+          <t>2,29</t>
+        </is>
+      </c>
+      <c r="MM6" t="n">
+        <v>5</v>
+      </c>
+      <c r="MN6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MO6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MP6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MQ6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MR6" t="inlineStr">
+        <is>
+          <t>1,96</t>
+        </is>
+      </c>
+      <c r="MS6" t="n">
+        <v>27</v>
+      </c>
+      <c r="MT6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MU6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MV6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MW6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MX6" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="MY6" t="n">
+        <v>14</v>
+      </c>
+      <c r="MZ6" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="NA6" t="n">
+        <v>7</v>
+      </c>
+      <c r="NB6" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="NC6" t="n">
+        <v>12</v>
+      </c>
+      <c r="ND6" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="NE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="NF6" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="NG6" t="n">
+        <v>8</v>
+      </c>
+      <c r="NH6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NI6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NJ6" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="NK6" t="n">
+        <v>7</v>
+      </c>
+      <c r="NL6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NM6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NN6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NO6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NP6" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="NQ6" t="n">
+        <v>5</v>
+      </c>
+      <c r="NR6" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="NS6" t="n">
+        <v>4</v>
+      </c>
+      <c r="NT6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NU6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NV6" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="NW6" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9595,13 +11244,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8A533E3-0059-4F7D-BE97-52D93786702A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C09AA735-15DD-4014-A9C5-3B5A4790E1D9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7B2842B-A28F-45E0-B84F-BEFB3B30ED9F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{717DF2DA-95E4-4695-8E90-8E63DE349B02}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B87A0B4A-E99E-40CC-AB80-1F35BB6023A1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F633FA87-8F12-4B42-A25B-1D9540559980}"/>
 </file>
--- a/data/data_epc_all.xlsx
+++ b/data/data_epc_all.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NW6"/>
+  <dimension ref="A1:NW7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11017,6 +11017,1941 @@
         <v>4</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-09-13 16:14</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14,02</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>69</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BD7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BQ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BV7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BW7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BX7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BY7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BZ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CA7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CB7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CC7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CD7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CE7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CF7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CG7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CH7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CI7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CJ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CK7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CL7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CM7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CN7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CO7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CP7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CQ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CR7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CS7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CT7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CU7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CV7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CW7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CX7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CY7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CZ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DA7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DB7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DC7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DD7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DE7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DF7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DG7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DH7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DI7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DJ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DK7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DL7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DM7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DN7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DO7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DP7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DQ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DR7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DS7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DT7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DU7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DV7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DW7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DX7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DY7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DZ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EA7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EB7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ED7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EE7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EF7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EG7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EH7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EU7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EW7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FE7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FP7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FQ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FR7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FS7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FT7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FU7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FV7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FW7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FX7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FY7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FZ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GA7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GB7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GC7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GD7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GE7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GF7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GG7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GH7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GI7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GJ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GK7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GL7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GM7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GN7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GO7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GP7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GQ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GR7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GS7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GT7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GU7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GV7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GW7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GX7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GY7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GZ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HA7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HB7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HC7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HD7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HE7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HF7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HG7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HH7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HI7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HJ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HK7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HL7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HM7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HN7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HO7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HP7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HQ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HR7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HS7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HT7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HU7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HV7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HW7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HX7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HY7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HZ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IA7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IB7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IC7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ID7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IE7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IF7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IG7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IH7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="II7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IJ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IK7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IL7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IM7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IN7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IO7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IP7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IQ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IR7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IS7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IT7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IU7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IV7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IW7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IX7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IY7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IZ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JA7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JB7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JC7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JD7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JE7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JF7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JG7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JH7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JI7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JJ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JK7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JL7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JM7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JN7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JO7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JP7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JQ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JR7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JS7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JT7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JU7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JV7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JW7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JX7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JY7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JZ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KA7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KB7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KC7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KD7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KE7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KF7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KG7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KH7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KI7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KJ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KK7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KL7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KM7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KN7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KO7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KP7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KQ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KR7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KS7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KT7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KU7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KV7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KW7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KX7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KY7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KZ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LA7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LB7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LC7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LD7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LE7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LF7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LG7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LH7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LI7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LJ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LK7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LL7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LM7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LN7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LO7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LP7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LQ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LR7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LS7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LT7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LU7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LV7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LW7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LX7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LY7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LZ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MA7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MB7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MC7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MD7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ME7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MF7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MG7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MH7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MI7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MJ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MK7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ML7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MM7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MN7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MO7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MP7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MQ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MR7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MS7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MT7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MU7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MV7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MW7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MX7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MY7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MZ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NA7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NB7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NC7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ND7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NE7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NF7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NG7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NH7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NI7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NJ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NK7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NL7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NM7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NN7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NO7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NP7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NQ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NR7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NS7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NT7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NU7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NV7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NW7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11244,13 +13179,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C09AA735-15DD-4014-A9C5-3B5A4790E1D9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C158F849-5C0A-4185-8523-E7944A3EE322}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{717DF2DA-95E4-4695-8E90-8E63DE349B02}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6A47FFB-72AD-419C-8F16-130D609DA003}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F633FA87-8F12-4B42-A25B-1D9540559980}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{461FAF59-07E1-4B38-A982-4B6BC6AC3CE7}"/>
 </file>